--- a/playMap_data.xlsx
+++ b/playMap_data.xlsx
@@ -5,11 +5,11 @@
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krsoft\OneDrive\Desktop\Random Combination Defence - Great Man\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FORYOUCOM\Desktop\게임 개발\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="7560" windowHeight="6735" tabRatio="500"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="28545" windowHeight="11340" tabRatio="500"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
@@ -19,18 +19,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
   <x:si>
-    <x:t>map_id</x:t>
+    <x:t>maximum_enemy_count</x:t>
+  </x:si>
+  <x:si>
+    <x:t>int</x:t>
   </x:si>
   <x:si>
     <x:t>maximum_population</x:t>
   </x:si>
   <x:si>
-    <x:t>int</x:t>
+    <x:t>maximum_wave</x:t>
   </x:si>
   <x:si>
-    <x:t>maximum_wave</x:t>
+    <x:t>map_id</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -177,7 +180,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -260,7 +262,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -295,7 +296,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -340,7 +340,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -384,7 +383,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -469,7 +467,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -490,7 +487,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -521,7 +517,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -887,10 +882,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="A1:C3"/>
+  <x:dimension ref="A1:D3"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="B6" activeCellId="0" sqref="B6:B6"/>
+      <x:selection activeCell="F9" activeCellId="0" sqref="F9:F9"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.39999999999999857891"/>
@@ -898,31 +893,38 @@
     <x:col min="1" max="1" width="7.2109375" bestFit="1" customWidth="1"/>
     <x:col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
     <x:col min="3" max="3" width="19.73828125" bestFit="1" customWidth="1"/>
+    <x:col min="4" max="4" width="21.63671875" bestFit="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:3">
+    <x:row r="1" spans="1:4">
       <x:c r="A1" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B1" s="1" t="s">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C1" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D1" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:4">
+      <x:c r="A2" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
+      <x:c r="B2" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C2" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D2" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
     </x:row>
-    <x:row r="2" spans="1:3">
-      <x:c r="A2" s="2" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B2" s="2" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C2" s="2" t="s">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:3">
+    <x:row r="3" spans="1:4">
       <x:c r="A3" s="3">
         <x:v>10000</x:v>
       </x:c>
@@ -932,9 +934,12 @@
       <x:c r="C3" s="3">
         <x:v>50</x:v>
       </x:c>
+      <x:c r="D3" s="3">
+        <x:v>20</x:v>
+      </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51152777671813964844" footer="0.51152777671813964844"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51138889789581298828" footer="0.51138889789581298828"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
--- a/playMap_data.xlsx
+++ b/playMap_data.xlsx
@@ -5,11 +5,11 @@
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FORYOUCOM\Desktop\게임 개발\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krsoft\OneDrive\Desktop\Random Combination Defence - Great Man\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="28545" windowHeight="11340" tabRatio="500"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="15075" windowHeight="6330" tabRatio="500"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
@@ -21,19 +21,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
   <x:si>
+    <x:t>maximum_population</x:t>
+  </x:si>
+  <x:si>
     <x:t>maximum_enemy_count</x:t>
   </x:si>
   <x:si>
-    <x:t>int</x:t>
-  </x:si>
-  <x:si>
-    <x:t>maximum_population</x:t>
+    <x:t>map_id</x:t>
   </x:si>
   <x:si>
     <x:t>maximum_wave</x:t>
   </x:si>
   <x:si>
-    <x:t>map_id</x:t>
+    <x:t>int</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -180,6 +180,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -262,6 +263,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -296,6 +298,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -340,6 +343,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -383,6 +387,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -467,6 +472,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -487,6 +493,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -517,6 +524,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -885,7 +893,7 @@
   <x:dimension ref="A1:D3"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="F9" activeCellId="0" sqref="F9:F9"/>
+      <x:selection activeCell="D8" activeCellId="0" sqref="D8:D8"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.39999999999999857891"/>
@@ -898,30 +906,30 @@
   <x:sheetData>
     <x:row r="1" spans="1:4">
       <x:c r="A1" s="1" t="s">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B1" s="1" t="s">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C1" s="1" t="s">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D1" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:4">
       <x:c r="A2" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D2" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -935,7 +943,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="D3" s="3">
-        <x:v>20</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/playMap_data.xlsx
+++ b/playMap_data.xlsx
@@ -5,11 +5,11 @@
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krsoft\OneDrive\Desktop\Random Combination Defence - Great Man\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FORYOUCOM\Desktop\Defence Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="15075" windowHeight="6330" tabRatio="500"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="28545" windowHeight="11340" tabRatio="500"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
@@ -27,13 +27,13 @@
     <x:t>maximum_enemy_count</x:t>
   </x:si>
   <x:si>
+    <x:t>int</x:t>
+  </x:si>
+  <x:si>
     <x:t>map_id</x:t>
   </x:si>
   <x:si>
     <x:t>maximum_wave</x:t>
-  </x:si>
-  <x:si>
-    <x:t>int</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -180,7 +180,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -263,7 +262,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -298,7 +296,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -343,7 +340,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -387,7 +383,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -472,7 +467,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -493,7 +487,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -524,7 +517,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -893,7 +885,7 @@
   <x:dimension ref="A1:D3"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="D8" activeCellId="0" sqref="D8:D8"/>
+      <x:selection activeCell="D7" activeCellId="0" sqref="D7:D7"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.39999999999999857891"/>
@@ -906,10 +898,10 @@
   <x:sheetData>
     <x:row r="1" spans="1:4">
       <x:c r="A1" s="1" t="s">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B1" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C1" s="1" t="s">
         <x:v>0</x:v>
@@ -920,16 +912,16 @@
     </x:row>
     <x:row r="2" spans="1:4">
       <x:c r="A2" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D2" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -940,7 +932,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C3" s="3">
-        <x:v>50</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D3" s="3">
         <x:v>40</x:v>

--- a/playMap_data.xlsx
+++ b/playMap_data.xlsx
@@ -5,11 +5,11 @@
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FORYOUCOM\Desktop\Defence Game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krsoft\OneDrive\Desktop\Random Combination Defence - Great Man\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="28545" windowHeight="11340" tabRatio="500"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="15075" windowHeight="5295" tabRatio="500"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
@@ -19,21 +19,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <x:si>
-    <x:t>maximum_population</x:t>
+    <x:t>map_id</x:t>
   </x:si>
   <x:si>
     <x:t>maximum_enemy_count</x:t>
   </x:si>
   <x:si>
-    <x:t>int</x:t>
+    <x:t>maximum_population</x:t>
   </x:si>
   <x:si>
-    <x:t>map_id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>maximum_wave</x:t>
+    <x:t>int</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -882,59 +879,49 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="A1:D3"/>
+  <x:dimension ref="A1:C3"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="D7" activeCellId="0" sqref="D7:D7"/>
+      <x:selection activeCell="C7" activeCellId="0" sqref="C7:C7"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.39999999999999857891"/>
   <x:cols>
     <x:col min="1" max="1" width="7.2109375" bestFit="1" customWidth="1"/>
-    <x:col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
-    <x:col min="3" max="3" width="19.73828125" bestFit="1" customWidth="1"/>
-    <x:col min="4" max="4" width="21.63671875" bestFit="1" customWidth="1"/>
+    <x:col min="2" max="2" width="19.73828125" bestFit="1" customWidth="1"/>
+    <x:col min="3" max="4" width="21.63671875" bestFit="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:4">
+    <x:row r="1" spans="1:3">
       <x:c r="A1" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B1" s="1" t="s">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C1" s="1" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D1" s="1" t="s">
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:4">
+    <x:row r="2" spans="1:3">
       <x:c r="A2" s="2" t="s">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D2" s="2" t="s">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:4">
+    <x:row r="3" spans="1:3">
       <x:c r="A3" s="3">
         <x:v>10000</x:v>
       </x:c>
       <x:c r="B3" s="3">
-        <x:v>4</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C3" s="3">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="D3" s="3">
         <x:v>40</x:v>
       </x:c>
     </x:row>
